--- a/КТ1/1 Анализ дизайна и функций конкурентных веб сайтов.xlsx
+++ b/КТ1/1 Анализ дизайна и функций конкурентных веб сайтов.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\College_Courses\BTEC-WEB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\College_Courses\BTEC-WEB\КТ1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C78FBC9A-A142-48CB-89EF-6EFD44FC861A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4335E33A-203D-4BFB-8D66-936C74FDC866}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Задание" sheetId="1" r:id="rId1"/>
@@ -298,9 +298,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -308,9 +305,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -324,6 +318,12 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -657,7 +657,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B14:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
@@ -668,62 +668,62 @@
   </cols>
   <sheetData>
     <row r="14" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="8" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="5" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="5" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="6"/>
+      <c r="C17" s="5"/>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="5" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="6"/>
+      <c r="C19" s="5"/>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="5" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="5" t="s">
         <v>39</v>
       </c>
     </row>
@@ -737,9 +737,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFA1516C-372B-411E-96F0-CC11CDE86FFA}">
   <dimension ref="B3:L9"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -754,189 +752,189 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:12" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
       <c r="E3" s="2"/>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="J3" s="8" t="s">
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="J3" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
     </row>
     <row r="4" spans="2:12" ht="18" x14ac:dyDescent="0.25">
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E4" s="1"/>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="K4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="L4" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="3"/>
-      <c r="C5" s="5" t="s">
+      <c r="B5" s="13"/>
+      <c r="C5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="5" t="s">
+      <c r="F5" s="13"/>
+      <c r="G5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="J5" s="3"/>
-      <c r="K5" s="5" t="s">
+      <c r="J5" s="13"/>
+      <c r="K5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="L5" s="5" t="s">
+      <c r="L5" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="105" x14ac:dyDescent="0.25">
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="H6" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="J6" s="7" t="s">
+      <c r="J6" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="11" t="s">
+      <c r="K6" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L6" s="9" t="s">
+      <c r="L6" s="7" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="7" spans="2:12" ht="120" x14ac:dyDescent="0.25">
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H7" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="J7" s="9" t="s">
+      <c r="J7" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="K7" s="9" t="s">
+      <c r="K7" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="L7" s="12" t="s">
+      <c r="L7" s="10" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="8" spans="2:12" ht="135" x14ac:dyDescent="0.25">
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="G8" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="H8" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="J8" s="9" t="s">
+      <c r="J8" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="K8" s="9" t="s">
+      <c r="K8" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="L8" s="9" t="s">
+      <c r="L8" s="7" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="9" spans="2:12" ht="105" x14ac:dyDescent="0.25">
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G9" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="H9" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="J9" s="13" t="s">
+      <c r="J9" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="K9" s="9" t="s">
+      <c r="K9" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="L9" s="9" t="s">
+      <c r="L9" s="7" t="s">
         <v>49</v>
       </c>
     </row>

--- a/КТ1/1 Анализ дизайна и функций конкурентных веб сайтов.xlsx
+++ b/КТ1/1 Анализ дизайна и функций конкурентных веб сайтов.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\College_Courses\BTEC-WEB\КТ1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4335E33A-203D-4BFB-8D66-936C74FDC866}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB346B83-931C-44B4-BDBB-93AB680B9231}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-11400" yWindow="3825" windowWidth="17760" windowHeight="9270" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Задание" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="55">
   <si>
     <t xml:space="preserve">Курорт “Архыз” </t>
   </si>
@@ -188,13 +188,30 @@
   </si>
   <si>
     <t>Является конкурентом. Является курортом, что работает круглый год. Поэтому кроме зимней аудитории охватывает и летнюю.</t>
+  </si>
+  <si>
+    <t>Отвечает потребностям владельца</t>
+  </si>
+  <si>
+    <t>Отвечает потребностям пользователей</t>
+  </si>
+  <si>
+    <t>Да, т.к. предоставляет всю необходимую информацию.
+Предоставляет возможность оплаты услуги</t>
+  </si>
+  <si>
+    <t>Предоставляет информацию, в которой нуждаются пользователи, чтобы сделать свой выбор</t>
+  </si>
+  <si>
+    <t>Пользователи могут найти всю нужную им информацию о курорте на сайте. 
+Но нет возможности посмотреть отзывы.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -251,6 +268,13 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -294,7 +318,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -318,6 +342,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -735,9 +762,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFA1516C-372B-411E-96F0-CC11CDE86FFA}">
-  <dimension ref="B3:L9"/>
+  <dimension ref="A3:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -751,26 +780,26 @@
     <col min="12" max="12" width="23.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:12" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B3" s="12" t="s">
+    <row r="3" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B3" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
       <c r="E3" s="2"/>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="J3" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-    </row>
-    <row r="4" spans="2:12" ht="18" x14ac:dyDescent="0.25">
-      <c r="B4" s="13" t="s">
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="J3" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+    </row>
+    <row r="4" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+      <c r="B4" s="14" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -780,7 +809,7 @@
         <v>2</v>
       </c>
       <c r="E4" s="1"/>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="14" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="3" t="s">
@@ -789,7 +818,7 @@
       <c r="H4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J4" s="13" t="s">
+      <c r="J4" s="14" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="3" t="s">
@@ -799,22 +828,22 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="13"/>
+    <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="14"/>
       <c r="C5" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="13"/>
+      <c r="F5" s="14"/>
       <c r="G5" s="4" t="s">
         <v>1</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="J5" s="13"/>
+      <c r="J5" s="14"/>
       <c r="K5" s="4" t="s">
         <v>1</v>
       </c>
@@ -822,7 +851,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:12" ht="105" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
         <v>13</v>
       </c>
@@ -851,7 +880,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="2:12" ht="120" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
         <v>14</v>
       </c>
@@ -880,7 +909,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="2:12" ht="135" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="135" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="s">
         <v>15</v>
       </c>
@@ -909,7 +938,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="2:12" ht="105" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="6" t="s">
         <v>16</v>
       </c>
@@ -936,6 +965,32 @@
       </c>
       <c r="L9" s="7" t="s">
         <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="12"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="F11" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
